--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2034452.236454532</v>
+        <v>-2037088.606108006</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>23.41994504831912</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>253.1470127076877</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>211.723859926597</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>132.42400373683</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>65.34334808401231</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>22.91478835728254</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>5.247097505316528</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72.932009829066</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.8861606025032</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>197.9791398602581</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>41.35684107511872</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>254.3985143316719</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>167.2829751020674</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>153.02354566733</v>
       </c>
       <c r="T13" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>39.52129633183119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,10 +1898,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>189.7822042251789</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.276945881932</v>
+        <v>2139.731202231639</v>
       </c>
       <c r="C2" t="n">
-        <v>117.6204357321147</v>
+        <v>1770.768685291227</v>
       </c>
       <c r="D2" t="n">
-        <v>117.6204357321147</v>
+        <v>1412.502986684477</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>1026.714734086233</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2139.731202231639</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2139.731202231639</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2139.731202231639</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>2139.731202231639</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>2139.731202231639</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>134.5663890134814</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193033</v>
+        <v>319.2880102945313</v>
       </c>
       <c r="L3" t="n">
-        <v>777.606906050775</v>
+        <v>613.991567326003</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1574.640838838064</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C4" t="n">
-        <v>1405.704655910157</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936619</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936619</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936619</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936619</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915738</v>
+        <v>1570.442738171454</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915738</v>
+        <v>1373.813990331315</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915738</v>
+        <v>1373.813990331315</v>
       </c>
       <c r="U4" t="n">
-        <v>2459.755921915738</v>
+        <v>1084.695652835153</v>
       </c>
       <c r="V4" t="n">
-        <v>2205.071433709851</v>
+        <v>830.0111646292663</v>
       </c>
       <c r="W4" t="n">
-        <v>2205.071433709851</v>
+        <v>830.0111646292663</v>
       </c>
       <c r="X4" t="n">
-        <v>1977.081882811834</v>
+        <v>602.021613731249</v>
       </c>
       <c r="Y4" t="n">
-        <v>1756.289303668304</v>
+        <v>602.021613731249</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3302.459570743229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3048.929094017065</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2717.866206673495</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2717.866206673495</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="X5" t="n">
-        <v>2717.866206673495</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.5498076188339</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C7" t="n">
-        <v>530.6136246909271</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D7" t="n">
-        <v>530.6136246909271</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E7" t="n">
-        <v>530.6136246909271</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>383.7236771930167</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X7" t="n">
-        <v>1101.990851592604</v>
+        <v>932.0196236983955</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.1982724490737</v>
+        <v>711.2270445548654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3015.33622398449</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2684.273336640919</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2331.504681370805</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.504681370805</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1448.559736363401</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1193.875248157514</v>
+        <v>1476.805504549547</v>
       </c>
       <c r="W10" t="n">
-        <v>904.4580781205533</v>
+        <v>1476.805504549547</v>
       </c>
       <c r="X10" t="n">
-        <v>676.468527222536</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.468527222536</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,37 +5981,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6470,43 +6470,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,25 +6646,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,25 +6877,25 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,13 +7111,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7345,13 +7345,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>21.1809937004748</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>341.8529467226884</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>367.5546555398469</v>
+        <v>153.7290330340237</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>28.00274033431461</v>
       </c>
       <c r="T13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>211.1765892730637</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>62.35543909864907</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287325</v>
+        <v>64921.82232287324</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642834</v>
@@ -26320,28 +26320,28 @@
         <v>82104.17698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>80714.6599690006</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642839</v>
@@ -26350,10 +26350,10 @@
         <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036143</v>
+        <v>187032.8958036142</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.0927060546</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39859.18718029543</v>
+        <v>39859.18718029544</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,31 +26430,31 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486243</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="L4" t="n">
+        <v>17938.00358486234</v>
+      </c>
+      <c r="M4" t="n">
         <v>17938.00358486237</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.00358486238</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486235</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1182626.920873187</v>
+        <v>-1183056.479739775</v>
       </c>
       <c r="C6" t="n">
-        <v>-318402.684280191</v>
+        <v>-318402.6842801912</v>
       </c>
       <c r="D6" t="n">
-        <v>-114963.9426680852</v>
+        <v>-114963.9426680851</v>
       </c>
       <c r="E6" t="n">
-        <v>-355767.4759840306</v>
+        <v>-355802.2139094662</v>
       </c>
       <c r="F6" t="n">
-        <v>-30355.01417667539</v>
+        <v>-30389.7521021111</v>
       </c>
       <c r="G6" t="n">
-        <v>-30355.01417667545</v>
+        <v>-30389.75210211112</v>
       </c>
       <c r="H6" t="n">
-        <v>-30355.01417667544</v>
+        <v>-30389.75210211109</v>
       </c>
       <c r="I6" t="n">
-        <v>-30355.01417667544</v>
+        <v>-30389.7521021111</v>
       </c>
       <c r="J6" t="n">
-        <v>-226030.8382559638</v>
+        <v>-226030.8382559636</v>
       </c>
       <c r="K6" t="n">
-        <v>-88108.03515840392</v>
+        <v>-88108.03515840397</v>
       </c>
       <c r="L6" t="n">
-        <v>-38997.94245234934</v>
+        <v>-38997.94245234941</v>
       </c>
       <c r="M6" t="n">
-        <v>-124052.9703878612</v>
+        <v>-124052.9703878611</v>
       </c>
       <c r="N6" t="n">
         <v>-38997.94245234942</v>
       </c>
       <c r="O6" t="n">
-        <v>-58425.66044598115</v>
+        <v>-58425.66044598112</v>
       </c>
       <c r="P6" t="n">
-        <v>-38997.94245234939</v>
+        <v>-38997.94245234944</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,16 +26808,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.32139020186452</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.32139020186506</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>16.19146928138238</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>36.21422433556133</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.0031817823376</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>343.9938712120965</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>93.09379842996222</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>91.82349478653396</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>53.01603209864385</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>328.3742596033503</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>31.81332387394096</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>84.85466822176056</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28618,10 +28618,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>338.1920576279222</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,16 +33026,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>84.16121459139219</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578707</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>196.0580237059039</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36677,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
